--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.04473212595073</v>
+        <v>0.1295</v>
       </c>
       <c r="H2">
-        <v>1.04473212595073</v>
+        <v>0.3885</v>
       </c>
       <c r="I2">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="J2">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.462159419438811</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N2">
-        <v>0.462159419438811</v>
+        <v>1.392827</v>
       </c>
       <c r="O2">
-        <v>0.5550373224972338</v>
+        <v>0.5486456655941866</v>
       </c>
       <c r="P2">
-        <v>0.5550373224972338</v>
+        <v>0.5486456655941866</v>
       </c>
       <c r="Q2">
-        <v>0.4828327927984642</v>
+        <v>0.06012369883333334</v>
       </c>
       <c r="R2">
-        <v>0.4828327927984642</v>
+        <v>0.5411132895</v>
       </c>
       <c r="S2">
-        <v>0.1841972293960707</v>
+        <v>0.01853861846866452</v>
       </c>
       <c r="T2">
-        <v>0.1841972293960707</v>
+        <v>0.01853861846866452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.04473212595073</v>
+        <v>0.1295</v>
       </c>
       <c r="H3">
-        <v>1.04473212595073</v>
+        <v>0.3885</v>
       </c>
       <c r="I3">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="J3">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.370504260472758</v>
+        <v>0.3819456666666667</v>
       </c>
       <c r="N3">
-        <v>0.370504260472758</v>
+        <v>1.145837</v>
       </c>
       <c r="O3">
-        <v>0.4449626775027661</v>
+        <v>0.4513543344058135</v>
       </c>
       <c r="P3">
-        <v>0.4449626775027661</v>
+        <v>0.4513543344058135</v>
       </c>
       <c r="Q3">
-        <v>0.3870777037175075</v>
+        <v>0.04946196383333334</v>
       </c>
       <c r="R3">
-        <v>0.3870777037175075</v>
+        <v>0.4451576745</v>
       </c>
       <c r="S3">
-        <v>0.1476673532725816</v>
+        <v>0.01525116541413912</v>
       </c>
       <c r="T3">
-        <v>0.1476673532725816</v>
+        <v>0.01525116541413912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.103335430851</v>
+        <v>1.300224333333333</v>
       </c>
       <c r="H4">
-        <v>2.103335430851</v>
+        <v>3.900673</v>
       </c>
       <c r="I4">
-        <v>0.6681354173313477</v>
+        <v>0.3392609978571102</v>
       </c>
       <c r="J4">
-        <v>0.6681354173313477</v>
+        <v>0.3392609978571102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.462159419438811</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N4">
-        <v>0.462159419438811</v>
+        <v>1.392827</v>
       </c>
       <c r="O4">
-        <v>0.5550373224972338</v>
+        <v>0.5486456655941866</v>
       </c>
       <c r="P4">
-        <v>0.5550373224972338</v>
+        <v>0.5486456655941866</v>
       </c>
       <c r="Q4">
-        <v>0.9720762816071796</v>
+        <v>0.6036625191745555</v>
       </c>
       <c r="R4">
-        <v>0.9720762816071796</v>
+        <v>5.432962672571</v>
       </c>
       <c r="S4">
-        <v>0.3708400931011632</v>
+        <v>0.1861340759794621</v>
       </c>
       <c r="T4">
-        <v>0.3708400931011632</v>
+        <v>0.1861340759794621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,309 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.300224333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.900673</v>
+      </c>
+      <c r="I5">
+        <v>0.3392609978571102</v>
+      </c>
+      <c r="J5">
+        <v>0.3392609978571102</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3819456666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.145837</v>
+      </c>
+      <c r="O5">
+        <v>0.4513543344058135</v>
+      </c>
+      <c r="P5">
+        <v>0.4513543344058135</v>
+      </c>
+      <c r="Q5">
+        <v>0.4966150498112222</v>
+      </c>
+      <c r="R5">
+        <v>4.469535448300999</v>
+      </c>
+      <c r="S5">
+        <v>0.1531269218776481</v>
+      </c>
+      <c r="T5">
+        <v>0.1531269218776481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1462553333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.438766</v>
+      </c>
+      <c r="I6">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="J6">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4642756666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.392827</v>
+      </c>
+      <c r="O6">
+        <v>0.5486456655941866</v>
+      </c>
+      <c r="P6">
+        <v>0.5486456655941866</v>
+      </c>
+      <c r="Q6">
+        <v>0.06790279238688889</v>
+      </c>
+      <c r="R6">
+        <v>0.611125131482</v>
+      </c>
+      <c r="S6">
+        <v>0.02093723415964493</v>
+      </c>
+      <c r="T6">
+        <v>0.02093723415964493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1462553333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.438766</v>
+      </c>
+      <c r="I7">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="J7">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3819456666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.145837</v>
+      </c>
+      <c r="O7">
+        <v>0.4513543344058135</v>
+      </c>
+      <c r="P7">
+        <v>0.4513543344058135</v>
+      </c>
+      <c r="Q7">
+        <v>0.05586159079355555</v>
+      </c>
+      <c r="R7">
+        <v>0.502754317142</v>
+      </c>
+      <c r="S7">
+        <v>0.01722443460514843</v>
+      </c>
+      <c r="T7">
+        <v>0.01722443460514843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.103335430851</v>
-      </c>
-      <c r="H5">
-        <v>2.103335430851</v>
-      </c>
-      <c r="I5">
-        <v>0.6681354173313477</v>
-      </c>
-      <c r="J5">
-        <v>0.6681354173313477</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.370504260472758</v>
-      </c>
-      <c r="N5">
-        <v>0.370504260472758</v>
-      </c>
-      <c r="O5">
-        <v>0.4449626775027661</v>
-      </c>
-      <c r="P5">
-        <v>0.4449626775027661</v>
-      </c>
-      <c r="Q5">
-        <v>0.7792947383335996</v>
-      </c>
-      <c r="R5">
-        <v>0.7792947383335996</v>
-      </c>
-      <c r="S5">
-        <v>0.2972953242301846</v>
-      </c>
-      <c r="T5">
-        <v>0.2972953242301846</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.256539666666666</v>
+      </c>
+      <c r="H8">
+        <v>6.769619</v>
+      </c>
+      <c r="I8">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="J8">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4642756666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.392827</v>
+      </c>
+      <c r="O8">
+        <v>0.5486456655941866</v>
+      </c>
+      <c r="P8">
+        <v>0.5486456655941866</v>
+      </c>
+      <c r="Q8">
+        <v>1.047656458101444</v>
+      </c>
+      <c r="R8">
+        <v>9.428908122913001</v>
+      </c>
+      <c r="S8">
+        <v>0.323035736986415</v>
+      </c>
+      <c r="T8">
+        <v>0.323035736986415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.256539666666666</v>
+      </c>
+      <c r="H9">
+        <v>6.769619</v>
+      </c>
+      <c r="I9">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="J9">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3819456666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.145837</v>
+      </c>
+      <c r="O9">
+        <v>0.4513543344058135</v>
+      </c>
+      <c r="P9">
+        <v>0.4513543344058135</v>
+      </c>
+      <c r="Q9">
+        <v>0.8618755473447777</v>
+      </c>
+      <c r="R9">
+        <v>7.756879926102999</v>
+      </c>
+      <c r="S9">
+        <v>0.2657518125088778</v>
+      </c>
+      <c r="T9">
+        <v>0.2657518125088778</v>
       </c>
     </row>
   </sheetData>
